--- a/tugas_db.xlsx
+++ b/tugas_db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="46">
   <si>
     <t>Unnormal</t>
   </si>
@@ -135,6 +135,36 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tabel Kasir</t>
+  </si>
+  <si>
+    <t>Tabel Struk</t>
+  </si>
+  <si>
+    <t>Tabel Barang</t>
+  </si>
+  <si>
+    <t>Kode_Barang *</t>
+  </si>
+  <si>
+    <t>Tabel header transaksi</t>
+  </si>
+  <si>
+    <t>Kode_Kasir**</t>
+  </si>
+  <si>
+    <t>No_Struk *</t>
+  </si>
+  <si>
+    <t>Tabel Detail Transaksi</t>
+  </si>
+  <si>
+    <t>Kode_Kasir *</t>
+  </si>
+  <si>
+    <t>Kode_Barang **</t>
   </si>
 </sst>
 </file>
@@ -958,10 +988,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,131 +1008,99 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44906</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44906</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44906</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44906</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44907</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44907</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1152,8 +1150,11 @@
       <c r="E13" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1169,8 +1170,14 @@
       <c r="E14" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1186,8 +1193,14 @@
       <c r="E15" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1203,8 +1216,14 @@
       <c r="E16" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1219,6 +1238,36 @@
       </c>
       <c r="E17" s="1">
         <v>17500</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44907</v>
       </c>
     </row>
   </sheetData>
@@ -1228,38 +1277,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>15</v>
@@ -1268,13 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44906</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1285,13 +1330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44906</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>35</v>
       </c>
@@ -1305,13 +1344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44906</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1322,13 +1355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44906</v>
-      </c>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1339,13 +1366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44907</v>
-      </c>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1356,13 +1377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44907</v>
-      </c>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1373,123 +1388,239 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="J12" s="1">
         <v>10000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="K12" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="2">
+        <v>44906</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="J13" s="1">
         <v>5000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="K13" s="1">
         <v>5000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2">
+        <v>44906</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="J14" s="1">
         <v>7500</v>
       </c>
-      <c r="E14" s="1">
+      <c r="K14" s="1">
         <v>7500</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
+        <v>44906</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="J15" s="1">
         <v>7500</v>
       </c>
-      <c r="E15" s="1">
+      <c r="K15" s="1">
         <v>15000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="2">
+        <v>44906</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1">
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
+      <c r="J16" s="1">
         <v>25000</v>
       </c>
-      <c r="E16" s="1">
+      <c r="K16" s="1">
         <v>25000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="2">
+        <v>44907</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
+      <c r="J17" s="1">
         <v>3500</v>
       </c>
-      <c r="E17" s="1">
+      <c r="K17" s="1">
         <v>17500</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="2">
+        <v>44907</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
